--- a/public/templateExcel/jurusan.xlsx
+++ b/public/templateExcel/jurusan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell XPS P54G\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lks\serverSide\RekapSurat\public\templateExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAC021F-D76E-432F-A9B9-2CF11A83240D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC69F7A6-FDB5-472D-8557-3CFD0A1CBA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,103 +20,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>nama_jurusan</t>
   </si>
   <si>
     <t>kode_jurusan</t>
   </si>
-  <si>
-    <t>REKAYASA PERANGKAT LUNAK</t>
-  </si>
-  <si>
-    <t>RPL</t>
-  </si>
-  <si>
-    <t>AK</t>
-  </si>
-  <si>
-    <t>MULTIMEDIA</t>
-  </si>
-  <si>
-    <t>MM</t>
-  </si>
-  <si>
-    <t>TEKNIK JARINGAN DAN KOMPUTER</t>
-  </si>
-  <si>
-    <t>BISNIS DARING</t>
-  </si>
-  <si>
-    <t>BD</t>
-  </si>
-  <si>
-    <t>DESAIN KOMUNIKASI VISUAL</t>
-  </si>
-  <si>
-    <t>DKV</t>
-  </si>
-  <si>
-    <t>LAYANAN PERBANKAN</t>
-  </si>
-  <si>
-    <t>LP</t>
-  </si>
-  <si>
-    <t>MANAJEMEN PERKANTORAN</t>
-  </si>
-  <si>
-    <t>MP</t>
-  </si>
-  <si>
-    <t>PRODUKSI DAN SIARAN PROGRAM TELEVISI</t>
-  </si>
-  <si>
-    <t>PSPTV</t>
-  </si>
-  <si>
-    <t>AKUNTANSI DAN KEUANGAN LEMBAGA</t>
-  </si>
-  <si>
-    <t>AKL</t>
-  </si>
-  <si>
-    <t>BISNIS DARING DAN PEMASARAN</t>
-  </si>
-  <si>
-    <t>BDP</t>
-  </si>
-  <si>
-    <t>OTOMATISASI DAN TATA KELOLA PERKANTORAN</t>
-  </si>
-  <si>
-    <t>OTKP</t>
-  </si>
-  <si>
-    <t>PERBANKAN DAN KEUANGAN MIKRO</t>
-  </si>
-  <si>
-    <t>PKM</t>
-  </si>
-  <si>
-    <t>PRODUKSI FILM</t>
-  </si>
-  <si>
-    <t>PF</t>
-  </si>
-  <si>
-    <t>TKJ</t>
-  </si>
-  <si>
-    <t>AKUNTANSI</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,13 +40,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC00FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -145,14 +74,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCC00FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -461,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,123 +409,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
